--- a/application/download/pws_template/template_pws_ibu1.xlsx
+++ b/application/download/pws_template/template_pws_ibu1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (IBU)</t>
   </si>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,7 +344,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -376,6 +375,10 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,6 +392,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,24 +704,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="39" customWidth="1"/>
-    <col min="6" max="11" width="11.69921875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="38" customWidth="1"/>
+    <col min="6" max="11" width="11.69921875" style="38" customWidth="1"/>
     <col min="12" max="13" width="12.796875" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.796875" style="39" customWidth="1"/>
-    <col min="21" max="30" width="26.09765625" style="39" customWidth="1"/>
-    <col min="31" max="1025" width="11.69921875" style="39" customWidth="1"/>
+    <col min="14" max="20" width="12.796875" style="38" customWidth="1"/>
+    <col min="21" max="30" width="26.09765625" style="38" customWidth="1"/>
+    <col min="31" max="1025" width="11.69921875" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,38 +929,38 @@
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="46" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="46" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -961,56 +973,56 @@
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="46" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="46" t="s">
+      <c r="P8" s="48"/>
+      <c r="Q8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="48" t="s">
+      <c r="S8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1023,32 +1035,32 @@
       <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="47"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="18" t="s">
         <v>20</v>
       </c>
@@ -1067,62 +1079,62 @@
       <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>1</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>2</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>3</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41">
         <v>4</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>5</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="42">
         <v>7</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="42">
         <v>8</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <v>9</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>10</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <v>11</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <v>12</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="42">
         <v>13</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="42">
         <v>14</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="42">
         <v>15</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="42">
         <v>16</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="42">
         <v>17</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="42">
         <v>18</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="42">
         <v>20</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="42">
         <v>21</v>
       </c>
       <c r="U10" s="8"/>
@@ -1143,7 +1155,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21" t="str">
@@ -1193,36 +1205,36 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21" t="str">
-        <f t="shared" ref="J12:J25" si="0">IF(H12+G12=0,"",H12+G12)</f>
+        <f t="shared" ref="J12:J36" si="0">IF(H12+G12=0,"",H12+G12)</f>
         <v/>
       </c>
       <c r="K12" s="22" t="str">
-        <f t="shared" ref="K12:K25" si="1">IF(J12="","",J12/C12*100)</f>
+        <f t="shared" ref="K12:K36" si="1">IF(J12="","",J12/C12*100)</f>
         <v/>
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21" t="str">
-        <f t="shared" ref="O12:O25" si="2">IF(L12+M12=0,"",L12+M12)</f>
+        <f t="shared" ref="O12:O36" si="2">IF(L12+M12=0,"",L12+M12)</f>
         <v/>
       </c>
       <c r="P12" s="21" t="str">
-        <f t="shared" ref="P12:P25" si="3">IF(O12="","",O12/C12*100)</f>
+        <f t="shared" ref="P12:P36" si="3">IF(O12="","",O12/C12*100)</f>
         <v/>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="21" t="str">
-        <f t="shared" ref="S12:S25" si="4">IF(Q12+R12=0,"",Q12+R12)</f>
+        <f t="shared" ref="S12:S36" si="4">IF(Q12+R12=0,"",Q12+R12)</f>
         <v/>
       </c>
       <c r="T12" s="21" t="str">
-        <f t="shared" ref="T12:T25" si="5">IF(S12="","",S12/C12*100)</f>
+        <f t="shared" ref="T12:T36" si="5">IF(S12="","",S12/C12*100)</f>
         <v/>
       </c>
       <c r="U12" s="8"/>
@@ -1243,7 +1255,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21" t="str">
@@ -1286,7 +1298,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1297,32 +1309,32 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J14:J24" si="6">IF(H14+G14=0,"",H14+G14)</f>
         <v/>
       </c>
       <c r="K14" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K14:K24" si="7">IF(J14="","",J14/C14*100)</f>
         <v/>
       </c>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O14:O24" si="8">IF(L14+M14=0,"",L14+M14)</f>
         <v/>
       </c>
       <c r="P14" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P14:P24" si="9">IF(O14="","",O14/C14*100)</f>
         <v/>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S14:S24" si="10">IF(Q14+R14=0,"",Q14+R14)</f>
         <v/>
       </c>
       <c r="T14" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T14:T24" si="11">IF(S14="","",S14/C14*100)</f>
         <v/>
       </c>
       <c r="U14" s="8"/>
@@ -1336,43 +1348,43 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K15" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P15" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T15" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U15" s="8"/>
@@ -1386,43 +1398,43 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K16" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P16" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T16" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U16" s="8"/>
@@ -1436,43 +1448,43 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K17" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="21"/>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P17" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T17" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U17" s="8"/>
@@ -1486,43 +1498,43 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K18" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="21"/>
       <c r="O18" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P18" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T18" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U18" s="8"/>
@@ -1536,43 +1548,43 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K19" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P19" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T19" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U19" s="8"/>
@@ -1586,43 +1598,43 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K20" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P20" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T20" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U20" s="8"/>
@@ -1636,43 +1648,43 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K21" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T21" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U21" s="8"/>
@@ -1686,7 +1698,7 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19" t="s">
         <v>22</v>
@@ -1699,32 +1711,32 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K22" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P22" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T22" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U22" s="8"/>
@@ -1738,7 +1750,7 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
         <v>22</v>
@@ -1751,32 +1763,32 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K23" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P23" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T23" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U23" s="8"/>
@@ -1790,45 +1802,45 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+    <row r="24" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K24" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P24" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T24" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U24" s="8"/>
@@ -1842,39 +1854,16 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="41">
-        <f>SUM(C11:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="41">
-        <f>SUM(D11:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="41">
-        <f t="shared" ref="E25:I25" si="6">SUM(E11:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1883,18 +1872,9 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L25" s="41">
-        <f t="shared" ref="L25" si="7">SUM(L11:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="41">
-        <f t="shared" ref="M25" si="8">SUM(M11:M24)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="41">
-        <f t="shared" ref="N25" si="9">SUM(N11:N24)</f>
-        <v>0</v>
-      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1903,14 +1883,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q25" s="41">
-        <f t="shared" ref="Q25:R25" si="10">SUM(Q11:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="21" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1930,29 +1904,45 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="31"/>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P26" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T26" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
@@ -1964,31 +1954,45 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="13"/>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P27" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T27" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -2000,31 +2004,45 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="13"/>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T28" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -2036,29 +2054,45 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="13"/>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P29" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T29" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -2070,29 +2104,45 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="13"/>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P30" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T30" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
@@ -2104,31 +2154,45 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="13"/>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P31" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T31" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
@@ -2140,31 +2204,45 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="17"/>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P32" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T32" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
@@ -2176,143 +2254,633 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
     </row>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="39" t="s">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P33" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T33" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P34" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T34" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P35" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T35" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="40">
+        <f t="shared" ref="C36:I36" si="12">SUM(C11:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" s="40">
+        <f>SUM(L11:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="40">
+        <f>SUM(M11:M35)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="40">
+        <f>SUM(N11:N35)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P36" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q36" s="40">
+        <f t="shared" ref="Q36:R36" si="13">SUM(Q11:Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T36" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+    </row>
+    <row r="40" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+    </row>
+    <row r="41" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+    </row>
+    <row r="42" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+    </row>
+    <row r="43" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="38" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2324,7 +2892,7 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:P7"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>

--- a/application/download/pws_template/template_pws_ibu1.xlsx
+++ b/application/download/pws_template/template_pws_ibu1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\dho\application\download\pws_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="396" yWindow="552" windowWidth="19812" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -379,20 +384,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +393,20 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,6 +416,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,25 +714,25 @@
   </sheetPr>
   <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="38" customWidth="1"/>
-    <col min="6" max="11" width="11.69921875" style="38" customWidth="1"/>
-    <col min="12" max="13" width="12.796875" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.796875" style="38" customWidth="1"/>
-    <col min="21" max="30" width="26.09765625" style="38" customWidth="1"/>
-    <col min="31" max="1025" width="11.69921875" style="38" customWidth="1"/>
+    <col min="1" max="1" width="5.3828125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="21.61328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.61328125" style="38" customWidth="1"/>
+    <col min="6" max="11" width="11.69140625" style="38" customWidth="1"/>
+    <col min="12" max="13" width="12.765625" style="1" customWidth="1"/>
+    <col min="14" max="20" width="12.765625" style="38" customWidth="1"/>
+    <col min="21" max="30" width="26.07421875" style="38" customWidth="1"/>
+    <col min="31" max="1025" width="11.69140625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,7 +768,7 @@
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
     </row>
-    <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -794,7 +802,7 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
     </row>
-    <row r="3" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -828,7 +836,7 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -862,7 +870,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
     </row>
-    <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -896,7 +904,7 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -928,39 +936,39 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
     </row>
-    <row r="7" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="47" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -972,57 +980,57 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
     </row>
-    <row r="8" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
+    <row r="8" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="49"/>
+      <c r="L8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="47" t="s">
+      <c r="N8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="47" t="s">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="48"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -1034,33 +1042,33 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+    <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="48"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
       <c r="S9" s="18" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1086,7 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>1</v>
       </c>
@@ -1148,7 +1156,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1198,7 +1206,7 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1248,7 +1256,7 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1298,7 +1306,7 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1348,7 +1356,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1398,7 +1406,7 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1448,7 +1456,7 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1498,7 +1506,7 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1548,7 +1556,7 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1598,7 +1606,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1648,7 +1656,7 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1698,7 +1706,7 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19" t="s">
         <v>22</v>
@@ -1750,7 +1758,7 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
         <v>22</v>
@@ -1802,15 +1810,15 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:30" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
       <c r="B24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -1854,7 +1862,7 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1904,7 +1912,7 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1954,7 +1962,7 @@
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2004,7 +2012,7 @@
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -2054,7 +2062,7 @@
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2104,7 +2112,7 @@
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2154,7 +2162,7 @@
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -2204,7 +2212,7 @@
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2254,7 +2262,7 @@
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19" t="s">
         <v>22</v>
@@ -2306,7 +2314,7 @@
       <c r="AC33" s="8"/>
       <c r="AD33" s="8"/>
     </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="19" t="s">
         <v>22</v>
@@ -2358,15 +2366,15 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -2410,11 +2418,11 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
     </row>
-    <row r="36" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+    <row r="36" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="46"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="40">
         <f t="shared" ref="C36:I36" si="12">SUM(C11:C35)</f>
         <v>0</v>
@@ -2498,7 +2506,7 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
     </row>
-    <row r="37" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="25" t="s">
         <v>22</v>
@@ -2532,7 +2540,7 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
     </row>
-    <row r="38" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
       <c r="B38" s="11" t="s">
         <v>22</v>
@@ -2568,7 +2576,7 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
     </row>
-    <row r="39" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="11" t="s">
         <v>22</v>
@@ -2604,7 +2612,7 @@
       <c r="AC39" s="8"/>
       <c r="AD39" s="8"/>
     </row>
-    <row r="40" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
       <c r="B40" s="11" t="s">
         <v>22</v>
@@ -2638,7 +2646,7 @@
       <c r="AC40" s="8"/>
       <c r="AD40" s="8"/>
     </row>
-    <row r="41" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
@@ -2672,7 +2680,7 @@
       <c r="AC41" s="8"/>
       <c r="AD41" s="8"/>
     </row>
-    <row r="42" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31"/>
       <c r="B42" s="11" t="s">
         <v>22</v>
@@ -2708,7 +2716,7 @@
       <c r="AC42" s="8"/>
       <c r="AD42" s="8"/>
     </row>
-    <row r="43" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
         <v>22</v>
@@ -2744,154 +2752,148 @@
       <c r="AC43" s="8"/>
       <c r="AD43" s="8"/>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="38" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="C8:C9"/>
@@ -2908,6 +2910,12 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
